--- a/Itokotons/input_data/Vendor_TestData.xlsx
+++ b/Itokotons/input_data/Vendor_TestData.xlsx
@@ -2,37 +2,477 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajith\git\Regression-Itokoton-New\Itokotons\input_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5548E8-0A32-4E72-960A-540E1654D767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A175F5-6D6E-480D-ACA4-C78716A9EAD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VendorInputDatas" sheetId="7" r:id="rId1"/>
+    <sheet name="VendorInputData" sheetId="1" r:id="rId1"/>
+    <sheet name="Testcases" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="143">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Sharp123</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>12312312</t>
+  </si>
+  <si>
+    <t>VendorReqNumber</t>
+  </si>
+  <si>
+    <t>CompanyFirstName</t>
+  </si>
+  <si>
+    <t>CompanyLastName</t>
+  </si>
+  <si>
+    <t>pvt ltd</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>AutorizedSignatory</t>
+  </si>
+  <si>
+    <t>AutorizedTitle</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>2 South street</t>
+  </si>
+  <si>
+    <t>Dz Test St</t>
+  </si>
+  <si>
+    <t>TestAutho</t>
+  </si>
+  <si>
+    <t>TestTitle</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>test@fax.com</t>
+  </si>
+  <si>
+    <t>testit@gmail.com</t>
+  </si>
+  <si>
+    <t>Test Short Name</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>john pv</t>
+  </si>
+  <si>
+    <t>Test Branch</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>ABSA</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>Test attachment one</t>
+  </si>
+  <si>
+    <t>Test attachment two</t>
+  </si>
+  <si>
+    <t>Test attachment three</t>
+  </si>
+  <si>
+    <t>Test attachment four</t>
+  </si>
+  <si>
+    <t>Test attachment five</t>
+  </si>
+  <si>
+    <t>Test attachment six</t>
+  </si>
+  <si>
+    <t>Test legal special value</t>
+  </si>
+  <si>
+    <t>Test legal internal value</t>
+  </si>
+  <si>
+    <t>Test control special value</t>
+  </si>
+  <si>
+    <t>Test control internal value</t>
+  </si>
+  <si>
+    <t>First approve</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Accountnumber</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Ibanno</t>
+  </si>
+  <si>
+    <t>Bankcity</t>
+  </si>
+  <si>
+    <t>Bankname</t>
+  </si>
+  <si>
+    <t>Swiftcode</t>
+  </si>
+  <si>
+    <t>BankAccountCurrency</t>
+  </si>
+  <si>
+    <t>Bankcountry</t>
+  </si>
+  <si>
+    <t>Paymentterms</t>
+  </si>
+  <si>
+    <t>ShippingCondition</t>
+  </si>
+  <si>
+    <t>Vendortype</t>
+  </si>
+  <si>
+    <t>PaymentCurrency</t>
+  </si>
+  <si>
+    <t>PlannedDeliveryTime</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>ModeofPayment</t>
+  </si>
+  <si>
+    <t>VATRegistration</t>
+  </si>
+  <si>
+    <t>Incoterms</t>
+  </si>
+  <si>
+    <t>VendorCategory</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>LCC#</t>
+  </si>
+  <si>
+    <t>Attremarks1</t>
+  </si>
+  <si>
+    <t>Attremarks2</t>
+  </si>
+  <si>
+    <t>Attremarks3</t>
+  </si>
+  <si>
+    <t>Attremarks4</t>
+  </si>
+  <si>
+    <t>Attremarks5</t>
+  </si>
+  <si>
+    <t>Attremarks6</t>
+  </si>
+  <si>
+    <t>Legalspecialcomment</t>
+  </si>
+  <si>
+    <t>Legalinternalnotes</t>
+  </si>
+  <si>
+    <t>Controlspecialcomment</t>
+  </si>
+  <si>
+    <t>Controlinternalnotes</t>
+  </si>
+  <si>
+    <t>Approver1Remarks</t>
+  </si>
+  <si>
+    <t>398750938725</t>
+  </si>
+  <si>
+    <t>9579987238</t>
+  </si>
+  <si>
+    <t>92875092375023</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Non Trade</t>
+  </si>
+  <si>
+    <t>Bank Related</t>
+  </si>
+  <si>
+    <t>CASH - Cash</t>
+  </si>
+  <si>
+    <t>CPT - Carriage paid to</t>
+  </si>
+  <si>
+    <t>Recurring Vendor - Yearly Business from US$ 1 up to US$ 10,000</t>
+  </si>
+  <si>
+    <t>IssueDate</t>
+  </si>
+  <si>
+    <t>Expirydate</t>
+  </si>
+  <si>
+    <t>Sudarsan</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Testcase1</t>
+  </si>
+  <si>
+    <t>Draft, Submit &amp; Approval Flow &amp; with Bank</t>
+  </si>
+  <si>
+    <t>With HQ</t>
+  </si>
+  <si>
+    <t>Testcase2</t>
+  </si>
+  <si>
+    <t>Submit &amp; Approval Flow &amp; with Bank</t>
+  </si>
+  <si>
+    <t>Testcase3</t>
+  </si>
+  <si>
+    <t>Draft, Add Approver, Submit Approval flow with Bank</t>
+  </si>
+  <si>
+    <t>Testcase4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add Approver Submit &amp; Approval Flow with Bank</t>
+  </si>
+  <si>
+    <t>Testcase5</t>
+  </si>
+  <si>
+    <t>Draft, Submit &amp; Approval Flow &amp; without Bank</t>
+  </si>
+  <si>
+    <t>Without HQ</t>
+  </si>
+  <si>
+    <t>Testcase6</t>
+  </si>
+  <si>
+    <t>Submit &amp; Approval Flow &amp; without Bank</t>
+  </si>
+  <si>
+    <t>Testcase7</t>
+  </si>
+  <si>
+    <t>Draft, Add Approver, Submit Approval flow without Bank</t>
+  </si>
+  <si>
+    <t>Testcase8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add Approver Submit &amp; Approval Flow without Bank</t>
+  </si>
+  <si>
+    <t>Testcase9</t>
+  </si>
+  <si>
+    <t>Edit the Bank Information &amp; Approval flow</t>
+  </si>
+  <si>
+    <t>Edit - With HQ</t>
+  </si>
+  <si>
+    <t>Testcase10</t>
+  </si>
+  <si>
+    <t>Renewal Edith the Bank Information &amp; Approval flow</t>
+  </si>
+  <si>
+    <t>Edit - Without HQ</t>
+  </si>
+  <si>
+    <t>Testcase11</t>
+  </si>
+  <si>
+    <t>Renewal Edit with Bank Information &amp; Approval flow</t>
+  </si>
+  <si>
+    <t>Renew - With HQ</t>
+  </si>
+  <si>
+    <t>Testcase12</t>
+  </si>
+  <si>
+    <t>Renewal Edit without Bank Information &amp; Approval flow</t>
+  </si>
+  <si>
+    <t>Renew - Without HQ</t>
+  </si>
+  <si>
+    <t>Testcase13</t>
+  </si>
+  <si>
+    <t>Auto Approval With Bank</t>
+  </si>
+  <si>
+    <t>Auto Approval - With HQ</t>
+  </si>
+  <si>
+    <t>Testcase14</t>
+  </si>
+  <si>
+    <t>Auto Approval Without Bank</t>
+  </si>
+  <si>
+    <t>Auto Approval - Without HQ</t>
+  </si>
+  <si>
+    <t>SubmitRemarks</t>
+  </si>
+  <si>
+    <t>ApprovedbyAutomation</t>
+  </si>
+  <si>
+    <t>HoldRemarks</t>
+  </si>
+  <si>
+    <t>HoldbyAutomation</t>
+  </si>
+  <si>
+    <t>AmendRemarks</t>
+  </si>
+  <si>
+    <t>AmendbyAutomation</t>
+  </si>
+  <si>
+    <t>AmendUpdateRemarks</t>
+  </si>
+  <si>
+    <t>AmendUpdatebyAutomation</t>
+  </si>
+  <si>
+    <t>ApproveRemarks</t>
+  </si>
+  <si>
+    <t>VendorCreatedbyAutomation</t>
+  </si>
+  <si>
+    <t>VendorCode</t>
+  </si>
+  <si>
+    <t>HQRemarks</t>
+  </si>
+  <si>
+    <t>JBUTER29SNA pvt ltd</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,14 +495,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -85,44 +534,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -150,14 +599,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -185,6 +651,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -196,153 +679,1055 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="34" width="19.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="25" style="5" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="62.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="37" max="39" width="19.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>9852</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>1265</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>43838</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="str">
+        <f t="shared" ref="A1:A22" si="0">LOWER(LEFT(B1,1)) &amp; MID(B1,2,LEN(B1))</f>
+        <v>shippingCondition</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>vendortype</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>paymentCurrency</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>plannedDeliveryTime</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>purpose</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>modeofPayment</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>lCC#</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>vATRegistration</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>incoterms</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>vendorCategory</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>vAT</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>attremarks1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>attremarks2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>attremarks3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>attremarks4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>attremarks5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>attremarks6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>legalspecialcomment</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>legalinternalnotes</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>controlspecialcomment</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>controlinternalnotes</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>approver1Remarks</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Itokotons/input_data/Vendor_TestData.xlsx
+++ b/Itokotons/input_data/Vendor_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A175F5-6D6E-480D-ACA4-C78716A9EAD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9207539D-FFC6-49A1-8822-C7A9A536E778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
